--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15729,6 +15729,98 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45204.5</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tobol</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>29/07/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>29/07/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>29/07/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-tobol/xfkp7w36/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kaspij Aktau</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Atyrau</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>07/04/2023 00:12</t>
+          <t>07/04/2023 01:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.89</v>
+        <v>2.19</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/04/2023 11:51</t>
+          <t>08/04/2023 11:42</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.23</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>07/04/2023 00:12</t>
+          <t>07/04/2023 01:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/04/2023 11:51</t>
+          <t>08/04/2023 11:42</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.19</v>
+        <v>3.24</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>07/04/2023 00:12</t>
+          <t>07/04/2023 01:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.01</v>
+        <v>3.09</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/04/2023 11:51</t>
+          <t>08/04/2023 11:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-atyrau/IHb2CJMe/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaspij-aktau/p40fEuhq/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>07/04/2023 01:12</t>
+          <t>07/04/2023 00:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.19</v>
+        <v>1.89</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/04/2023 11:42</t>
+          <t>08/04/2023 11:51</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.23</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>07/04/2023 01:12</t>
+          <t>07/04/2023 00:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/04/2023 11:42</t>
+          <t>08/04/2023 11:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.24</v>
+        <v>4.19</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>07/04/2023 01:12</t>
+          <t>07/04/2023 00:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.09</v>
+        <v>4.01</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/04/2023 11:42</t>
+          <t>08/04/2023 11:51</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaspij-aktau/p40fEuhq/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-atyrau/IHb2CJMe/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.59</v>
+        <v>1.96</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:56</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:50</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.55</v>
+        <v>3.23</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:56</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-aktobe/6y0wEWc0/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-aksu/EsN4Uirs/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.96</v>
+        <v>2.59</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:50</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.23</v>
+        <v>2.55</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-aksu/EsN4Uirs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-aktobe/6y0wEWc0/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Astana</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5.75</v>
+        <v>3.12</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>6.76</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>9.710000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>14.01</v>
+        <v>3.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>FC Astana</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.93</v>
+        <v>1.17</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.12</v>
+        <v>5.75</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>6.76</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.3</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.18</v>
+        <v>14.01</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.88</v>
+        <v>2.02</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.33</v>
+        <v>3.07</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:50</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.69</v>
+        <v>3.06</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.76</v>
+        <v>2.93</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>01/07/2023 13:51</t>
+          <t>01/07/2023 13:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aktobe/IFBN34dE/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-shakhter-karagandy/YRkMazvq/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.02</v>
+        <v>3.88</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:54</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.07</v>
+        <v>3.33</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:50</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.06</v>
+        <v>1.69</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.93</v>
+        <v>1.76</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>01/07/2023 13:54</t>
+          <t>01/07/2023 13:51</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-shakhter-karagandy/YRkMazvq/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-aktobe/IFBN34dE/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.37</v>
+        <v>2.28</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:23</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:56</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.28</v>
+        <v>3.37</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:23</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.67</v>
+        <v>1.75</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Ordabasy</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>4.02</v>
+        <v>7.31</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.59</v>
+        <v>5.92</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.14</v>
+        <v>4.18</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.41</v>
+        <v>1.4</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-aktobe/MNE6KmwN/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-ordabasy/jPDoPBOi/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Ordabasy</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>7.31</v>
+        <v>4.02</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>5.92</v>
+        <v>2.59</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.18</v>
+        <v>3.14</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.4</v>
+        <v>2.41</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-ordabasy/jPDoPBOi/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-aktobe/MNE6KmwN/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1.89</v>
+        <v>3.58</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>2.99</v>
+        <v>3.31</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.09</v>
+        <v>3.81</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>3.61</v>
+        <v>1.76</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.56</v>
+        <v>1.75</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-maqtaaral/KGuThsqk/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaspij-aktau-kairat-almaty/GrZyiLD1/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>3.58</v>
+        <v>1.89</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.31</v>
+        <v>2.99</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.81</v>
+        <v>3.09</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>1.76</v>
+        <v>3.61</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>1.75</v>
+        <v>3.56</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaspij-aktau-kairat-almaty/GrZyiLD1/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-maqtaaral/KGuThsqk/</t>
         </is>
       </c>
     </row>
@@ -15818,6 +15818,374 @@
       <c r="V167" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-tobol/xfkp7w36/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Kyzylzhar</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kyzylzhar/rgZGih4C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kairat Almaty</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>4</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Aksu</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:35</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-aksu/nRu8gEZa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Tobol</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Kaspij Aktau</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kaspij-aktau/8zs4ffKg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>FC Astana</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Zhetysu Taldykorgan</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>6</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-zhetysu-taldykorgan/0AwddGks/</t>
         </is>
       </c>
     </row>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:52</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Kaisar Kyzylorda</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
         <v>2.66</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>3.13</v>
-      </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:58</t>
+          <t>15/04/2023 12:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Ordabasy</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>02/06/2023 05:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>03/06/2023 16:55</t>
+          <t>03/06/2023 16:25</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.3</v>
+        <v>3.81</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>02/06/2023 05:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.46</v>
+        <v>3.89</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>03/06/2023 16:54</t>
+          <t>03/06/2023 16:25</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.03</v>
+        <v>5</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>02/06/2023 05:12</t>
+          <t>02/06/2023 09:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>7.25</v>
+        <v>5.6</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>03/06/2023 16:55</t>
+          <t>03/06/2023 16:25</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-shakhter-karagandy/vwGb7Ruh/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-atyrau/UR8B4PPA/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ordabasy</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 05:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 16:25</t>
+          <t>03/06/2023 16:55</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.81</v>
+        <v>4.3</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 05:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.89</v>
+        <v>4.46</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 16:25</t>
+          <t>03/06/2023 16:54</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5</v>
+        <v>6.03</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>02/06/2023 09:12</t>
+          <t>02/06/2023 05:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.6</v>
+        <v>7.25</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 16:25</t>
+          <t>03/06/2023 16:55</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-atyrau/UR8B4PPA/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-shakhter-karagandy/vwGb7Ruh/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>FC Astana</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.93</v>
+        <v>1.17</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.12</v>
+        <v>5.75</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>6.76</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.3</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.18</v>
+        <v>14.01</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Astana</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>5.75</v>
+        <v>3.12</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>6.76</v>
+        <v>3</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>9.710000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>14.01</v>
+        <v>3.18</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Okzhetpes</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
         <v>2</v>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Kaisar Kyzylorda</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
       <c r="J162" t="n">
-        <v>2.29</v>
+        <v>1.49</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.95</v>
+        <v>1.52</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>01/10/2023 10:48</t>
+          <t>01/10/2023 10:47</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.02</v>
+        <v>3.77</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>01/10/2023 10:48</t>
+          <t>01/10/2023 10:47</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.74</v>
+        <v>5.06</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.3</v>
+        <v>5.46</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>01/10/2023 10:48</t>
+          <t>01/10/2023 10:47</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-kaisar-kyzylorda/b7vXi1be/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-okzhetpes/QgtPgNTr/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Okzhetpes</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.49</v>
+        <v>2.29</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.52</v>
+        <v>2.95</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>01/10/2023 10:47</t>
+          <t>01/10/2023 10:48</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.77</v>
+        <v>3.02</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>01/10/2023 10:47</t>
+          <t>01/10/2023 10:48</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>5.06</v>
+        <v>2.74</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>5.46</v>
+        <v>2.3</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>01/10/2023 10:47</t>
+          <t>01/10/2023 10:48</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-okzhetpes/QgtPgNTr/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-kaisar-kyzylorda/b7vXi1be/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>3.58</v>
+        <v>1.89</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.31</v>
+        <v>2.99</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.81</v>
+        <v>3.09</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.76</v>
+        <v>3.61</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.75</v>
+        <v>3.56</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>01/10/2023 12:18</t>
+          <t>01/10/2023 12:46</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaspij-aktau-kairat-almaty/GrZyiLD1/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-maqtaaral/KGuThsqk/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.89</v>
+        <v>3.58</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>2.99</v>
+        <v>3.31</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.09</v>
+        <v>3.81</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.61</v>
+        <v>1.76</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.56</v>
+        <v>1.75</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>01/10/2023 12:46</t>
+          <t>01/10/2023 12:18</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-maqtaaral/KGuThsqk/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaspij-aktau-kairat-almaty/GrZyiLD1/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>5.26</v>
+        <v>4.72</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>5.07</v>
+        <v>4.26</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>8.52</v>
+        <v>7.54</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-aksu/nRu8gEZa/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kaspij-aktau/8zs4ffKg/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.72</v>
+        <v>5.26</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.26</v>
+        <v>5.07</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>7.54</v>
+        <v>8.52</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kaspij-aktau/8zs4ffKg/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-aksu/nRu8gEZa/</t>
         </is>
       </c>
     </row>
@@ -16186,6 +16186,98 @@
       <c r="V171" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-zhetysu-taldykorgan/0AwddGks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Okzhetpes</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Aktobe</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/okzhetpes-aktobe/xGYKjCJI/</t>
         </is>
       </c>
     </row>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Kaisar Kyzylorda</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
         <v>2.66</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>3.13</v>
-      </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:58</t>
+          <t>15/04/2023 12:54</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:52</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.28</v>
+        <v>3.37</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:23</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.67</v>
+        <v>1.75</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:56</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.37</v>
+        <v>2.28</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:23</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:56</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4.72</v>
+        <v>5.26</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.26</v>
+        <v>5.07</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>7.54</v>
+        <v>8.52</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>21/10/2023 13:59</t>
+          <t>21/10/2023 13:35</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kaspij-aktau/8zs4ffKg/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-aksu/nRu8gEZa/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>5.26</v>
+        <v>4.72</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>5.07</v>
+        <v>4.26</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>8.52</v>
+        <v>7.54</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>21/10/2023 13:35</t>
+          <t>21/10/2023 13:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-aksu/nRu8gEZa/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-kaspij-aktau/8zs4ffKg/</t>
         </is>
       </c>
     </row>
@@ -16278,6 +16278,190 @@
       <c r="V172" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/okzhetpes-aktobe/xGYKjCJI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kaisar Kyzylorda</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Atyrau</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:35</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:18</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-atyrau/UkVChYl6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Ordabasy</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>3</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Shakhter Karagandy</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-shakhter-karagandy/v1x0ez5m/</t>
         </is>
       </c>
     </row>

--- a/2023/kazakhstan_premier-league_2023.xlsx
+++ b/2023/kazakhstan_premier-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Okzhetpes</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02/04/2023 05:12</t>
+          <t>01/04/2023 01:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/04/2023 10:12</t>
+          <t>02/04/2023 12:56</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>02/04/2023 05:12</t>
+          <t>01/04/2023 01:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.33</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/04/2023 11:05</t>
+          <t>02/04/2023 12:56</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.88</v>
+        <v>4.23</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>02/04/2023 05:12</t>
+          <t>01/04/2023 01:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.97</v>
+        <v>4.69</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/04/2023 10:12</t>
+          <t>02/04/2023 12:56</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-okzhetpes/2VHd52FS/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-kyzylzhar/88Ih6r0M/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Okzhetpes</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01/04/2023 01:12</t>
+          <t>02/04/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/04/2023 12:56</t>
+          <t>02/04/2023 10:12</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>01/04/2023 01:12</t>
+          <t>02/04/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/04/2023 12:56</t>
+          <t>02/04/2023 11:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.23</v>
+        <v>3.88</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>01/04/2023 01:12</t>
+          <t>02/04/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.69</v>
+        <v>3.97</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/04/2023 12:56</t>
+          <t>02/04/2023 10:12</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-kyzylzhar/88Ih6r0M/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-okzhetpes/2VHd52FS/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:52</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>15/04/2023 12:54</t>
+          <t>15/04/2023 12:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Kaisar Kyzylorda</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>15/04/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
         <v>2.66</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>15/04/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>14/04/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>3.13</v>
-      </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>15/04/2023 12:58</t>
+          <t>15/04/2023 12:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-kaisar-kyzylorda/IF7QGYDs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-maqtaaral/tjpcY0qF/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Tobol</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.96</v>
+        <v>2.59</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:50</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.23</v>
+        <v>2.55</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>23/04/2023 11:55</t>
+          <t>23/04/2023 11:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-aksu/EsN4Uirs/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-aktobe/6y0wEWc0/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tobol</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.59</v>
+        <v>1.96</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:56</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:50</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.55</v>
+        <v>3.23</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/04/2023 11:56</t>
+          <t>23/04/2023 11:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/tobol-aktobe/6y0wEWc0/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-aksu/EsN4Uirs/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Zhetysu Taldykorgan</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Atyrau</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 12:51</t>
+          <t>20/05/2023 12:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Zhetysu Taldykorgan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Atyrau</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 12:59</t>
+          <t>20/05/2023 12:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aksu/j7tByReO/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/zhetysu-taldykorgan-atyrau/4ApFzoBU/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Astana</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Kaspij Aktau</t>
+          <t>Kyzylzhar</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5.75</v>
+        <v>3.12</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>6.76</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>9.710000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>14.01</v>
+        <v>3.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>24/06/2023 13:36</t>
+          <t>24/06/2023 13:05</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>FC Astana</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Kyzylzhar</t>
+          <t>Kaspij Aktau</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.93</v>
+        <v>1.17</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.12</v>
+        <v>5.75</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>6.76</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.3</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.18</v>
+        <v>14.01</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>24/06/2023 13:05</t>
+          <t>24/06/2023 13:36</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kairat-almaty-kyzylzhar/2wCw8bW2/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/fc-astana-kaspij-aktau/xd4j5dGL/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Maqtaaral</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.37</v>
+        <v>2.28</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:57</t>
+          <t>15/07/2023 14:23</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/07/2023 03:12</t>
+          <t>14/07/2023 02:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>15/07/2023 14:56</t>
+          <t>15/07/2023 14:44</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Maqtaaral</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aktobe</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.28</v>
+        <v>3.37</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:23</t>
+          <t>15/07/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.67</v>
+        <v>1.75</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>14/07/2023 02:12</t>
+          <t>14/07/2023 03:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>15/07/2023 14:44</t>
+          <t>15/07/2023 14:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/maqtaaral-kaisar-kyzylorda/nkGR2OBK/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-aktobe/p0Q6gKY6/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kaisar Kyzylorda</t>
+          <t>Aksu</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Shakhter Karagandy</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.86</v>
+        <v>1.81</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.52</v>
+        <v>2.26</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.15</v>
+        <v>3.72</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.04</v>
+        <v>2.88</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/07/2023 16:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-kairat-almaty/QJot8Jm0/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-shakhter-karagandy/QFVvTKPP/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Aksu</t>
+          <t>Kaisar Kyzylorda</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Shakhter Karagandy</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.26</v>
+        <v>3.52</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.17</v>
+        <v>3.01</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.72</v>
+        <v>2.15</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:03</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-shakhter-karagandy/QFVvTKPP/</t>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaisar-kyzylorda-kairat-almaty/QJot8Jm0/</t>
         </is>
       </c>
     </row>
@@ -16462,6 +16462,650 @@
       <c r="V174" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/kazakhstan/premier-league/ordabasy-shakhter-karagandy/v1x0ez5m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45228.41666666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Aksu</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Tobol</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:54</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:57</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aksu-tobol/CUOV8gZn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45228.41666666666</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Atyrau</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Kairat Almaty</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:53</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:53</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/atyrau-kairat-almaty/I7PR9ZJt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45228.41666666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kyzylzhar</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Kaisar Kyzylorda</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:51</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:52</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:48</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kyzylzhar-kaisar-kyzylorda/Gbw0EFBP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Okzhetpes</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Maqtaaral</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/okzhetpes-maqtaaral/G6XOkWYO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Aktobe</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Zhetysu Taldykorgan</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/aktobe-zhetysu-taldykorgan/nmHr6iJ5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kaspij Aktau</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Ordabasy</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/kaspij-aktau-ordabasy/QXSZ7Dlg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Shakhter Karagandy</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>FC Astana</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/kazakhstan/premier-league/shakhter-karagandy-fc-astana/8dIv7X3a/</t>
         </is>
       </c>
     </row>
